--- a/VersionRecords/Version 5.0.4.3_beta/版本Bug和特性计划及评审表v5.0.4.3_beta.xlsx
+++ b/VersionRecords/Version 5.0.4.3_beta/版本Bug和特性计划及评审表v5.0.4.3_beta.xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitDoc\Mogo_Doc\VersionRecords\Version 5.0.4.3 20161028\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitDoc\Mogo_Doc\VersionRecords\Version 5.0.4.3_beta\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
   <si>
     <t>No</t>
   </si>
@@ -87,9 +87,6 @@
   </si>
   <si>
     <t>备注</t>
-  </si>
-  <si>
-    <t>是</t>
   </si>
   <si>
     <t>对应backlog序号</t>
@@ -155,169 +152,11 @@
     <t>技术经理</t>
   </si>
   <si>
-    <t>重要</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>紧急</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>重要程度</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>紧急程度</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>房态图空置房源筛选不应包含预定中的房源</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>房东PC</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>韩淑芳</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>马丁组</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>李萌</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bugfixs</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>芝麻信用定时器更新</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>公司业务指标统计</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>New Features</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>BS</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>张浩、孙苏文</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>磐石组</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>王健</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>能</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>扫码微信支付宝报修功能</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>New Feature</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>s</t>
-    </r>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>微信公众号、支付宝公众号</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>吕崇新、裔玲玲</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>发现组、EQ组</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>邵明基</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>重要</t>
-  </si>
-  <si>
-    <t>紧急</t>
-  </si>
-  <si>
-    <t>房东PC集中式房间录入房间号验证</t>
-  </si>
-  <si>
-    <t>Bugfixs</t>
-  </si>
-  <si>
-    <t>房东PC</t>
-  </si>
-  <si>
-    <t>马丁组</t>
-  </si>
-  <si>
-    <t>李萌</t>
-  </si>
-  <si>
-    <t>通过</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>能</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>能</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>安栋</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>安栋</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -1243,7 +1082,7 @@
   <dimension ref="A1:V180"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="A2" sqref="A2:U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1277,10 +1116,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="48" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C1" s="48" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D1" s="28" t="s">
         <v>1</v>
@@ -1338,55 +1177,23 @@
       </c>
     </row>
     <row r="2" spans="1:22" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="29">
-        <v>1</v>
-      </c>
-      <c r="B2" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="47" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="E2" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="F2" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="G2" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="32">
-        <v>42671</v>
-      </c>
-      <c r="I2" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="32">
-        <v>42671</v>
-      </c>
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="32"/>
       <c r="K2" s="31"/>
-      <c r="L2" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="M2" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="N2" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="O2" s="39" t="s">
-        <v>75</v>
-      </c>
-      <c r="P2" s="32">
-        <v>42671</v>
-      </c>
-      <c r="Q2" s="39" t="s">
-        <v>77</v>
-      </c>
+      <c r="L2" s="39"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="39"/>
       <c r="R2" s="36"/>
       <c r="S2" s="36"/>
       <c r="T2" s="45"/>
@@ -1394,55 +1201,23 @@
       <c r="V2" s="43"/>
     </row>
     <row r="3" spans="1:22" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="29">
-        <v>2</v>
-      </c>
-      <c r="B3" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="47" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="E3" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="F3" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="G3" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="32">
-        <v>42671</v>
-      </c>
-      <c r="I3" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="32">
-        <v>42671</v>
-      </c>
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="32"/>
       <c r="K3" s="31"/>
-      <c r="L3" s="39" t="s">
-        <v>80</v>
-      </c>
-      <c r="M3" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="N3" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="O3" s="39" t="s">
-        <v>76</v>
-      </c>
-      <c r="P3" s="32">
-        <v>42671</v>
-      </c>
-      <c r="Q3" s="39" t="s">
-        <v>78</v>
-      </c>
+      <c r="L3" s="39"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="39"/>
       <c r="R3" s="36"/>
       <c r="S3" s="36"/>
       <c r="T3" s="45"/>
@@ -1450,55 +1225,23 @@
       <c r="V3" s="43"/>
     </row>
     <row r="4" spans="1:22" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="29">
-        <v>3</v>
-      </c>
-      <c r="B4" s="59" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" s="59" t="s">
-        <v>69</v>
-      </c>
-      <c r="D4" s="60" t="s">
-        <v>70</v>
-      </c>
-      <c r="E4" s="61" t="s">
-        <v>71</v>
-      </c>
-      <c r="F4" s="61" t="s">
-        <v>72</v>
-      </c>
-      <c r="G4" s="61" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="62">
-        <v>42671</v>
-      </c>
-      <c r="I4" s="61" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" s="62">
-        <v>42671</v>
-      </c>
+      <c r="A4" s="29"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="62"/>
       <c r="K4" s="61"/>
-      <c r="L4" s="63" t="s">
-        <v>79</v>
-      </c>
-      <c r="M4" s="61" t="s">
-        <v>73</v>
-      </c>
-      <c r="N4" s="61" t="s">
-        <v>74</v>
-      </c>
-      <c r="O4" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="P4" s="32">
-        <v>42671</v>
-      </c>
-      <c r="Q4" s="39" t="s">
-        <v>60</v>
-      </c>
+      <c r="L4" s="63"/>
+      <c r="M4" s="61"/>
+      <c r="N4" s="61"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="39"/>
       <c r="R4" s="36"/>
       <c r="S4" s="36"/>
       <c r="T4" s="45"/>
@@ -1506,113 +1249,47 @@
       <c r="V4" s="43"/>
     </row>
     <row r="5" spans="1:22" s="24" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="29">
-        <v>4</v>
-      </c>
-      <c r="B5" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="E5" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="F5" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="G5" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="H5" s="32">
-        <v>42671</v>
-      </c>
-      <c r="I5" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="J5" s="62">
-        <v>42671</v>
-      </c>
+      <c r="A5" s="29"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="62"/>
       <c r="K5" s="31"/>
-      <c r="L5" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="M5" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="N5" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="O5" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="P5" s="32">
-        <v>42671</v>
-      </c>
-      <c r="Q5" s="39" t="s">
-        <v>60</v>
-      </c>
+      <c r="L5" s="39"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="39"/>
+      <c r="P5" s="32"/>
+      <c r="Q5" s="39"/>
       <c r="R5" s="36"/>
       <c r="S5" s="36"/>
       <c r="T5" s="36"/>
-      <c r="U5" s="44" t="s">
-        <v>61</v>
-      </c>
+      <c r="U5" s="44"/>
       <c r="V5" s="43"/>
     </row>
     <row r="6" spans="1:22" s="24" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="29">
-        <v>5</v>
-      </c>
-      <c r="B6" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="E6" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="F6" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="G6" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="32">
-        <v>42670</v>
-      </c>
-      <c r="I6" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="J6" s="32">
-        <v>42670</v>
-      </c>
+      <c r="A6" s="29"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="32"/>
       <c r="K6" s="31"/>
-      <c r="L6" s="39" t="s">
-        <v>65</v>
-      </c>
-      <c r="M6" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="N6" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="O6" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="P6" s="32">
-        <v>42671</v>
-      </c>
-      <c r="Q6" s="39" t="s">
-        <v>60</v>
-      </c>
+      <c r="L6" s="39"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="39"/>
+      <c r="P6" s="32"/>
+      <c r="Q6" s="39"/>
       <c r="R6" s="36"/>
       <c r="S6" s="36"/>
       <c r="T6" s="58"/>
@@ -5568,28 +5245,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="C1" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="D1" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="E1" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="F1" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="G1" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="H1" s="17" t="s">
         <v>26</v>
-      </c>
-      <c r="H1" s="17" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -6634,7 +6311,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="64" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" s="64"/>
       <c r="C1" s="64"/>
@@ -6666,40 +6343,40 @@
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="H3" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="I3" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="J3" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="K3" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="L3" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="M3" s="15" t="s">
         <v>18</v>

--- a/VersionRecords/Version 5.0.4.3_beta/版本Bug和特性计划及评审表v5.0.4.3_beta.xlsx
+++ b/VersionRecords/Version 5.0.4.3_beta/版本Bug和特性计划及评审表v5.0.4.3_beta.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
   <si>
     <t>No</t>
   </si>
@@ -157,6 +157,59 @@
   </si>
   <si>
     <t>紧急程度</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>重要</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>紧急</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>水电煤需求</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Features</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东APP</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>王向阳、孙苏文、张浩</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>磐石组</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>李傲、王云飞</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -1082,14 +1135,14 @@
   <dimension ref="A1:V180"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:U6"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6.875" style="25" customWidth="1"/>
     <col min="2" max="3" width="9.875" style="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="45.125" style="26" customWidth="1"/>
+    <col min="4" max="4" width="13.75" style="26" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" style="25" customWidth="1"/>
     <col min="6" max="6" width="18" style="25" customWidth="1"/>
     <col min="7" max="7" width="9.625" style="25" customWidth="1"/>
@@ -1176,28 +1229,60 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="31"/>
+    <row r="2" spans="1:22" s="24" customFormat="1" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="29">
+        <v>1</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="32">
+        <v>42671</v>
+      </c>
+      <c r="I2" s="31" t="s">
+        <v>48</v>
+      </c>
       <c r="J2" s="32"/>
       <c r="K2" s="31"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="39"/>
+      <c r="L2" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="M2" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="N2" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" s="32">
+        <v>42671</v>
+      </c>
+      <c r="Q2" s="39" t="s">
+        <v>53</v>
+      </c>
       <c r="R2" s="36"/>
       <c r="S2" s="36"/>
-      <c r="T2" s="45"/>
-      <c r="U2" s="42"/>
+      <c r="T2" s="36"/>
+      <c r="U2" s="44" t="s">
+        <v>54</v>
+      </c>
       <c r="V2" s="43"/>
     </row>
     <row r="3" spans="1:22" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
